--- a/SelectionFinale.xlsx
+++ b/SelectionFinale.xlsx
@@ -58,76 +58,76 @@
     <t>Zone</t>
   </si>
   <si>
+    <t>Antigua-et-Barbuda</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>Saint-Kitts-et-Nevis</t>
+  </si>
+  <si>
+    <t>Saint-Vincent-et-les Grenadines</t>
+  </si>
+  <si>
+    <t>Chine - RAS de Hong-Kong</t>
+  </si>
+  <si>
+    <t>Chine - RAS de Macao</t>
+  </si>
+  <si>
+    <t>Mongolie</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Autriche</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>Danemark</t>
+  </si>
+  <si>
+    <t>Irlande</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Malte</t>
+  </si>
+  <si>
+    <t>Pays-Bas</t>
+  </si>
+  <si>
     <t>Suisse</t>
   </si>
   <si>
-    <t>Allemagne</t>
-  </si>
-  <si>
-    <t>Autriche</t>
-  </si>
-  <si>
-    <t>Malte</t>
-  </si>
-  <si>
-    <t>Irlande</t>
-  </si>
-  <si>
-    <t>Danemark</t>
-  </si>
-  <si>
     <t>Nouvelle-Calédonie</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Dominique</t>
-  </si>
-  <si>
-    <t>Antigua-et-Barbuda</t>
-  </si>
-  <si>
-    <t>Saint-Kitts-et-Nevis</t>
-  </si>
-  <si>
     <t>Polynésie française</t>
   </si>
   <si>
-    <t>Mongolie</t>
-  </si>
-  <si>
-    <t>Saint-Vincent-et-les Grenadines</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Chine - RAS de Macao</t>
-  </si>
-  <si>
-    <t>Pays-Bas</t>
-  </si>
-  <si>
-    <t>Belgique</t>
-  </si>
-  <si>
-    <t>Chine - RAS de Hong-Kong</t>
+    <t>Amériques</t>
+  </si>
+  <si>
+    <t>Asie</t>
   </si>
   <si>
     <t>Europe</t>
   </si>
   <si>
     <t>Océanie</t>
-  </si>
-  <si>
-    <t>Amériques</t>
-  </si>
-  <si>
-    <t>Asie</t>
   </si>
 </sst>
 </file>
@@ -543,34 +543,34 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="D2">
-        <v>69103.60000000001</v>
+        <v>19840.3</v>
       </c>
       <c r="E2">
-        <v>1.31</v>
+        <v>0.89</v>
       </c>
       <c r="F2">
-        <v>61.65</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>63.59</v>
+        <v>77.67</v>
       </c>
       <c r="H2">
-        <v>122.38</v>
+        <v>127.08</v>
       </c>
       <c r="I2">
-        <v>10.69</v>
+        <v>28.19</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>4</v>
@@ -587,34 +587,34 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>0.17</v>
+        <v>1.31</v>
       </c>
       <c r="D3">
-        <v>53071.5</v>
+        <v>35911.7</v>
       </c>
       <c r="E3">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="F3">
-        <v>51.58</v>
+        <v>7.689999999999998</v>
       </c>
       <c r="G3">
-        <v>60.54</v>
+        <v>89</v>
       </c>
       <c r="H3">
-        <v>127.02</v>
+        <v>110.12</v>
       </c>
       <c r="I3">
-        <v>12.63</v>
+        <v>26.75</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>57</v>
+        <v>-9</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -631,34 +631,34 @@
         <v>34</v>
       </c>
       <c r="C4">
-        <v>0.61</v>
+        <v>0.09</v>
       </c>
       <c r="D4">
-        <v>54173</v>
+        <v>11341.3</v>
       </c>
       <c r="E4">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="F4">
-        <v>36.42</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>59.85</v>
+        <v>58.64</v>
       </c>
       <c r="H4">
-        <v>130.44</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="I4">
-        <v>11.58</v>
+        <v>24.88</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>4</v>
@@ -675,31 +675,31 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="D5">
-        <v>43559.3</v>
+        <v>26980.3</v>
       </c>
       <c r="E5">
-        <v>1.16</v>
+        <v>0.83</v>
       </c>
       <c r="F5">
-        <v>35.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>55.62</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="H5">
-        <v>130.44</v>
+        <v>99.72</v>
       </c>
       <c r="I5">
-        <v>19.6</v>
+        <v>38.86</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -719,37 +719,37 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>0.99</v>
+        <v>0.12</v>
       </c>
       <c r="D6">
-        <v>77749.2</v>
+        <v>13102.1</v>
       </c>
       <c r="E6">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="F6">
-        <v>22.66</v>
+        <v>-12.5</v>
       </c>
       <c r="G6">
-        <v>64.27</v>
+        <v>55.29</v>
       </c>
       <c r="H6">
-        <v>137.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I6">
-        <v>17.06</v>
+        <v>50.91</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -760,34 +760,34 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="D7">
-        <v>55356.7</v>
+        <v>59842.2</v>
       </c>
       <c r="E7">
         <v>0.98</v>
       </c>
       <c r="F7">
-        <v>20.36</v>
+        <v>-223.93</v>
       </c>
       <c r="G7">
-        <v>68.19</v>
+        <v>69.41</v>
       </c>
       <c r="H7">
-        <v>155.24</v>
+        <v>192.94</v>
       </c>
       <c r="I7">
-        <v>16.84</v>
+        <v>23.26</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -807,34 +807,34 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>1.39</v>
+        <v>2.34</v>
       </c>
       <c r="D8">
-        <v>31100</v>
+        <v>126144</v>
       </c>
       <c r="E8">
-        <v>0.45</v>
+        <v>0.85</v>
       </c>
       <c r="F8">
-        <v>18.18000000000001</v>
+        <v>-21.05</v>
       </c>
       <c r="G8">
-        <v>60.51</v>
+        <v>67.75</v>
       </c>
       <c r="H8">
-        <v>101.41</v>
+        <v>137.1</v>
       </c>
       <c r="I8">
-        <v>27.93</v>
+        <v>17.5</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>-16</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -848,34 +848,34 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>35911.7</v>
+        <v>11366.3</v>
       </c>
       <c r="E9">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="F9">
-        <v>7.689999999999998</v>
+        <v>-11.11</v>
       </c>
       <c r="G9">
-        <v>89</v>
+        <v>77.72</v>
       </c>
       <c r="H9">
-        <v>110.12</v>
+        <v>129.03</v>
       </c>
       <c r="I9">
-        <v>26.75</v>
+        <v>1.48</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -892,34 +892,34 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>2.46</v>
+        <v>0.17</v>
       </c>
       <c r="D10">
-        <v>114986</v>
+        <v>53071.5</v>
       </c>
       <c r="E10">
-        <v>1.41</v>
+        <v>0.82</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>51.58</v>
       </c>
       <c r="G10">
-        <v>63.9</v>
+        <v>60.54</v>
       </c>
       <c r="H10">
-        <v>136.29</v>
+        <v>127.02</v>
       </c>
       <c r="I10">
-        <v>10.64</v>
+        <v>12.63</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -939,34 +939,34 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>0.09</v>
+        <v>0.61</v>
       </c>
       <c r="D11">
-        <v>11341.3</v>
+        <v>54173</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>1.2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>36.42</v>
       </c>
       <c r="G11">
-        <v>58.64</v>
+        <v>59.85</v>
       </c>
       <c r="H11">
-        <v>93.34999999999999</v>
+        <v>130.44</v>
       </c>
       <c r="I11">
-        <v>24.88</v>
+        <v>11.58</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>4</v>
@@ -983,34 +983,34 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>1.36</v>
+        <v>0.68</v>
       </c>
       <c r="D12">
-        <v>19840.3</v>
+        <v>50442.3</v>
       </c>
       <c r="E12">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-122.37</v>
       </c>
       <c r="G12">
-        <v>77.67</v>
+        <v>56.93</v>
       </c>
       <c r="H12">
-        <v>127.08</v>
+        <v>116.33</v>
       </c>
       <c r="I12">
-        <v>28.19</v>
+        <v>7.92</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -1027,25 +1027,25 @@
         <v>36</v>
       </c>
       <c r="C13">
-        <v>0.89</v>
+        <v>0.48</v>
       </c>
       <c r="D13">
-        <v>26980.3</v>
+        <v>55356.7</v>
       </c>
       <c r="E13">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>20.36</v>
       </c>
       <c r="G13">
-        <v>64.34999999999999</v>
+        <v>68.19</v>
       </c>
       <c r="H13">
-        <v>99.72</v>
+        <v>155.24</v>
       </c>
       <c r="I13">
-        <v>38.86</v>
+        <v>16.84</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>4</v>
@@ -1068,37 +1068,37 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
       <c r="D14">
-        <v>17000</v>
+        <v>77749.2</v>
       </c>
       <c r="E14">
-        <v>-0.07000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>22.66</v>
       </c>
       <c r="G14">
-        <v>63.89</v>
+        <v>64.27</v>
       </c>
       <c r="H14">
-        <v>125.6</v>
+        <v>137.1</v>
       </c>
       <c r="I14">
-        <v>26</v>
+        <v>17.06</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>4</v>
@@ -1112,37 +1112,37 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="D15">
-        <v>11366.3</v>
+        <v>114986</v>
       </c>
       <c r="E15">
-        <v>0.64</v>
+        <v>1.41</v>
       </c>
       <c r="F15">
-        <v>-11.11</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>77.72</v>
+        <v>63.9</v>
       </c>
       <c r="H15">
-        <v>129.03</v>
+        <v>136.29</v>
       </c>
       <c r="I15">
-        <v>1.48</v>
+        <v>10.64</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -1159,37 +1159,37 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>0.12</v>
+        <v>0.74</v>
       </c>
       <c r="D16">
-        <v>13102.1</v>
+        <v>43559.3</v>
       </c>
       <c r="E16">
-        <v>0.86</v>
+        <v>1.16</v>
       </c>
       <c r="F16">
-        <v>-12.5</v>
+        <v>35.70999999999999</v>
       </c>
       <c r="G16">
-        <v>55.29</v>
+        <v>55.62</v>
       </c>
       <c r="H16">
-        <v>99.40000000000001</v>
+        <v>130.44</v>
       </c>
       <c r="I16">
-        <v>50.91</v>
+        <v>19.6</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1200,40 +1200,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>0.73</v>
+        <v>0.31</v>
       </c>
       <c r="D17">
-        <v>6486.1</v>
+        <v>55088.6</v>
       </c>
       <c r="E17">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="F17">
-        <v>-13.33</v>
+        <v>-63.44</v>
       </c>
       <c r="G17">
-        <v>61.03</v>
+        <v>65.12</v>
       </c>
       <c r="H17">
-        <v>105.44</v>
+        <v>137.1</v>
       </c>
       <c r="I17">
-        <v>41.84</v>
+        <v>12.47</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>-4</v>
+        <v>164</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1244,34 +1244,34 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>2.34</v>
+        <v>1.22</v>
       </c>
       <c r="D18">
-        <v>126144</v>
+        <v>69103.60000000001</v>
       </c>
       <c r="E18">
-        <v>0.85</v>
+        <v>1.31</v>
       </c>
       <c r="F18">
-        <v>-21.05</v>
+        <v>61.65</v>
       </c>
       <c r="G18">
-        <v>67.75</v>
+        <v>63.59</v>
       </c>
       <c r="H18">
-        <v>137.1</v>
+        <v>122.38</v>
       </c>
       <c r="I18">
-        <v>17.5</v>
+        <v>10.69</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1288,37 +1288,37 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>0.31</v>
+        <v>1.39</v>
       </c>
       <c r="D19">
-        <v>55088.6</v>
+        <v>31100</v>
       </c>
       <c r="E19">
-        <v>0.98</v>
+        <v>0.45</v>
       </c>
       <c r="F19">
-        <v>-63.44</v>
+        <v>18.18000000000001</v>
       </c>
       <c r="G19">
-        <v>65.12</v>
+        <v>60.51</v>
       </c>
       <c r="H19">
-        <v>137.1</v>
+        <v>101.41</v>
       </c>
       <c r="I19">
-        <v>12.47</v>
+        <v>27.93</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>4</v>
@@ -1332,37 +1332,37 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="D20">
-        <v>50442.3</v>
+        <v>17000</v>
       </c>
       <c r="E20">
-        <v>0.73</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F20">
-        <v>-122.37</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>56.93</v>
+        <v>63.89</v>
       </c>
       <c r="H20">
-        <v>116.33</v>
+        <v>125.6</v>
       </c>
       <c r="I20">
-        <v>7.92</v>
+        <v>26</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>4</v>
@@ -1379,37 +1379,37 @@
         <v>37</v>
       </c>
       <c r="C21">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="D21">
-        <v>59842.2</v>
+        <v>6486.1</v>
       </c>
       <c r="E21">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="F21">
-        <v>-223.93</v>
+        <v>-13.33</v>
       </c>
       <c r="G21">
-        <v>69.41</v>
+        <v>61.03</v>
       </c>
       <c r="H21">
-        <v>192.94</v>
+        <v>105.44</v>
       </c>
       <c r="I21">
-        <v>23.26</v>
+        <v>41.84</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>24</v>
+        <v>-4</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>1</v>
